--- a/teams/vsa/teams/global-ux/Global UX Team Capacity Planning Sheet.xlsx
+++ b/teams/vsa/teams/global-ux/Global UX Team Capacity Planning Sheet.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Eitarhoni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Kemahli\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120184D7-CDCD-49B0-A880-0E34403C335D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46060F92-CE56-4FA4-9DF2-61E4F6D4C305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="641" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 3 Capacity" sheetId="5" r:id="rId1"/>
+    <sheet name="sprint 5 capacity" sheetId="6" r:id="rId2"/>
+    <sheet name="Sprint 6 capacity" sheetId="8" r:id="rId3"/>
+    <sheet name="Sprint 7 Capacity" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +73,9 @@
   </si>
   <si>
     <t>Selina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelson </t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,11 +142,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +202,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
         <v>48</v>
       </c>
     </row>
@@ -626,4 +705,601 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D57A88-D6D1-4071-8CA9-11637595E234}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9">
+        <f>D2*E2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="9">
+        <f>SUM(F2:F8)</f>
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A33966-0FEE-442E-9B66-AC8B1F5BA27C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F8" si="0">D2*E2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16">
+        <f>SUM(F2:F8)</f>
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCE8666-D04D-41D0-9E67-E5A20AE949ED}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F8" si="0">D2*E2</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16">
+        <f>SUM(F2:F8)</f>
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>